--- a/TS Jatai Working/Raja Files/Padam Inputs/TS Ghana Maala Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS Ghana Maala Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B5C81-BB93-4F1A-BEDF-ECEE7B098A69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA937B36-C833-4DB5-9BD0-CBF0DF1AFE2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5576,9 +5576,9 @@
   <dimension ref="A1:V1580"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="V45" sqref="V45"/>
+      <selection pane="bottomLeft" activeCell="U103" sqref="U103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7393,7 +7393,9 @@
       <c r="N41" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="O41" s="8"/>
+      <c r="O41" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
@@ -8469,9 +8471,7 @@
       <c r="R75" s="18"/>
       <c r="S75" s="18"/>
       <c r="T75" s="18"/>
-      <c r="U75" s="18" t="s">
-        <v>579</v>
-      </c>
+      <c r="U75" s="18"/>
       <c r="V75" s="61"/>
     </row>
     <row r="76" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9276,9 +9276,6 @@
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
-      <c r="U102" s="70" t="s">
-        <v>1076</v>
-      </c>
       <c r="V102" s="61"/>
     </row>
     <row r="103" spans="4:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9306,7 +9303,9 @@
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
-      <c r="U103" s="9"/>
+      <c r="U103" s="70" t="s">
+        <v>1076</v>
+      </c>
       <c r="V103" s="61"/>
     </row>
     <row r="104" spans="4:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
